--- a/biology/Botanique/Nigritelle_noire/Nigritelle_noire.xlsx
+++ b/biology/Botanique/Nigritelle_noire/Nigritelle_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nigritella rhellicani
-La nigritelle noire (anciennement Nigritella rhellicani ou Nigritella nigra subsp. rhellicani), également appelée orchis vanille, nigritelle noirâtre, nigritelle de Rellikon, nigritelle de Rhellicanus..., est une espèce de plantes à fleurs de la famille des Orchidacées.Actuellement, on la relie au genre Gymnadenia : Gymnadenia rhellicani (Teppner &amp; E. Klein) Teppner &amp; E. Klein (1998)[1] ou Gymnadenia nigra subsp. rhellicani (Teppner &amp; E.Klein) J.-M.Tison, 2010. C'est une petite plante herbacée trouvée en Europe. 
+La nigritelle noire (anciennement Nigritella rhellicani ou Nigritella nigra subsp. rhellicani), également appelée orchis vanille, nigritelle noirâtre, nigritelle de Rellikon, nigritelle de Rhellicanus..., est une espèce de plantes à fleurs de la famille des Orchidacées.Actuellement, on la relie au genre Gymnadenia : Gymnadenia rhellicani (Teppner &amp; E. Klein) Teppner &amp; E. Klein (1998) ou Gymnadenia nigra subsp. rhellicani (Teppner &amp; E.Klein) J.-M.Tison, 2010. C'est une petite plante herbacée trouvée en Europe. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivace, haute d'une dizaine de centimètres, florissant de mai à août.
 Elle dégage une odeur de vanille d'où son appellation d'orchis vanille.
-Son inflorescence, rouge sombre, tirant parfois sur le rose, mesure de 1 à 3 centimètres de hauteur et possède une forme ovoïde conique. Ses feuilles sont linéaires et allongées[2].
+Son inflorescence, rouge sombre, tirant parfois sur le rose, mesure de 1 à 3 centimètres de hauteur et possède une forme ovoïde conique. Ses feuilles sont linéaires et allongées.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nigritelle noire pousse aux étages subalpin et alpin (entre 1 500 et 2 500 m d'altitude), dans les alpages et prairies de montagne. Elle pousse dans divers types de pelouses maigres et landes ouvertes. On la retrouve aussi bien dans les massifs calcaire que siliceux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nigritelle noire pousse aux étages subalpin et alpin (entre 1 500 et 2 500 m d'altitude), dans les alpages et prairies de montagne. Elle pousse dans divers types de pelouses maigres et landes ouvertes. On la retrouve aussi bien dans les massifs calcaire que siliceux.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (Suisse) et publiée en 1984, on disait de cette plante localement dénommée èrba du kâlon (« herbe du caillé ») : « S'il est mangé par le bétail, le lait ne caille pas »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (Suisse) et publiée en 1984, on disait de cette plante localement dénommée èrba du kâlon (« herbe du caillé ») : « S'il est mangé par le bétail, le lait ne caille pas ».
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrénées, Massif central, Jura, Alpes, Balkans, Grèce.
 </t>
